--- a/datasets/mediteranian-medetera-occurrences/data/interim/GBIF_Medetera_degrees_positive_concat.xlsx
+++ b/datasets/mediteranian-medetera-occurrences/data/interim/GBIF_Medetera_degrees_positive_concat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimitri_brosens\Documents\Github\data-publication\datasets\mediteranian-medetara-occurrences\data\interim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimitri_brosens\Documents\Github\data-publication\datasets\mediteranian-medetera-occurrences\data\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946B51AE-FE75-4F5B-98FE-4043ED40A275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B2D4AB-4026-4598-8FC3-6F9699E0A85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:AE64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,6 +1046,8 @@
     <col min="14" max="14" width="14.88671875" customWidth="1"/>
     <col min="15" max="15" width="12.44140625" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
@@ -3422,7 +3424,7 @@
         <v>41.768783333333332</v>
       </c>
       <c r="O29">
-        <v>231.91666666666666</v>
+        <v>9.2229166666666664</v>
       </c>
       <c r="P29">
         <v>1095</v>
@@ -3505,7 +3507,7 @@
         <v>41.761116666666666</v>
       </c>
       <c r="O30">
-        <v>234.73333333333332</v>
+        <v>9.2257333333333342</v>
       </c>
       <c r="P30">
         <v>1154</v>
@@ -3588,7 +3590,7 @@
         <v>41.76703333333333</v>
       </c>
       <c r="O31">
-        <v>232.48333333333332</v>
+        <v>9.2234833333333341</v>
       </c>
       <c r="P31">
         <v>1117</v>
@@ -3671,7 +3673,7 @@
         <v>41.76703333333333</v>
       </c>
       <c r="O32">
-        <v>232.48333333333332</v>
+        <v>9.2234833333333341</v>
       </c>
       <c r="P32">
         <v>1117</v>
@@ -3754,7 +3756,7 @@
         <v>41.768883333333335</v>
       </c>
       <c r="O33">
-        <v>231.96666666666667</v>
+        <v>9.2229666666666663</v>
       </c>
       <c r="P33">
         <v>1116</v>
@@ -3837,7 +3839,7 @@
         <v>41.768650000000001</v>
       </c>
       <c r="O34">
-        <v>231.45</v>
+        <v>9.2224500000000003</v>
       </c>
       <c r="P34">
         <v>1120</v>
@@ -3920,7 +3922,7 @@
         <v>41.768816666666666</v>
       </c>
       <c r="O35">
-        <v>232</v>
+        <v>9.2230000000000008</v>
       </c>
       <c r="P35">
         <v>1115</v>
@@ -4003,7 +4005,7 @@
         <v>41.768816666666666</v>
       </c>
       <c r="O36">
-        <v>232</v>
+        <v>9.2230000000000008</v>
       </c>
       <c r="P36">
         <v>1115</v>
@@ -4086,7 +4088,7 @@
         <v>41.761616666666669</v>
       </c>
       <c r="O37">
-        <v>236.63333333333333</v>
+        <v>9.2276333333333334</v>
       </c>
       <c r="P37">
         <v>1209</v>
@@ -4169,7 +4171,7 @@
         <v>41.761616666666669</v>
       </c>
       <c r="O38">
-        <v>236.63333333333333</v>
+        <v>9.2276333333333334</v>
       </c>
       <c r="P38">
         <v>1209</v>
@@ -4252,7 +4254,7 @@
         <v>41.761616666666669</v>
       </c>
       <c r="O39">
-        <v>236.63333333333333</v>
+        <v>9.2276333333333334</v>
       </c>
       <c r="P39">
         <v>1209</v>
@@ -4335,7 +4337,7 @@
         <v>41.761616666666669</v>
       </c>
       <c r="O40">
-        <v>236.63333333333333</v>
+        <v>9.2276333333333334</v>
       </c>
       <c r="P40">
         <v>1209</v>
@@ -4418,7 +4420,7 @@
         <v>41.761716666666665</v>
       </c>
       <c r="O41">
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="P41">
         <v>1208</v>
@@ -4501,7 +4503,7 @@
         <v>41.761716666666665</v>
       </c>
       <c r="O42">
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="P42">
         <v>1208</v>
@@ -4584,7 +4586,7 @@
         <v>41.761716666666665</v>
       </c>
       <c r="O43">
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="P43">
         <v>1208</v>
@@ -4667,7 +4669,7 @@
         <v>41.761716666666665</v>
       </c>
       <c r="O44">
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="P44">
         <v>1208</v>
@@ -4750,7 +4752,7 @@
         <v>41.761716666666665</v>
       </c>
       <c r="O45">
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="P45">
         <v>1208</v>
@@ -4833,7 +4835,7 @@
         <v>41.761716666666665</v>
       </c>
       <c r="O46">
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="P46">
         <v>1208</v>
@@ -4916,7 +4918,7 @@
         <v>41.761716666666665</v>
       </c>
       <c r="O47">
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="P47">
         <v>1208</v>
@@ -4999,7 +5001,7 @@
         <v>41.761716666666665</v>
       </c>
       <c r="O48">
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="P48">
         <v>1208</v>
@@ -5082,7 +5084,7 @@
         <v>41.761716666666665</v>
       </c>
       <c r="O49">
-        <v>236.48333333333332</v>
+        <v>9.2274833333333337</v>
       </c>
       <c r="P49">
         <v>1208</v>
